--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="H2">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="I2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="J2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N2">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P2">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q2">
-        <v>0.02524582024711111</v>
+        <v>8.368692979740446</v>
       </c>
       <c r="R2">
-        <v>0.227212382224</v>
+        <v>75.31823681766402</v>
       </c>
       <c r="S2">
-        <v>0.4075058768333447</v>
+        <v>0.9405580082392788</v>
       </c>
       <c r="T2">
-        <v>0.4075058768333447</v>
+        <v>0.9405580082392786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="H3">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="I3">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="J3">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>0.060942</v>
       </c>
       <c r="O3">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P3">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q3">
-        <v>0.003227677917333333</v>
+        <v>0.05876574763733335</v>
       </c>
       <c r="R3">
-        <v>0.029049101256</v>
+        <v>0.5288917287360001</v>
       </c>
       <c r="S3">
-        <v>0.05209962310450395</v>
+        <v>0.006604686620033781</v>
       </c>
       <c r="T3">
-        <v>0.05209962310450395</v>
+        <v>0.006604686620033779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="H4">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="I4">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="J4">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,22 +679,22 @@
         <v>0.209095</v>
       </c>
       <c r="O4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P4">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q4">
-        <v>0.01107432171777778</v>
+        <v>0.2016281710844444</v>
       </c>
       <c r="R4">
-        <v>0.09966889546</v>
+        <v>1.81465353976</v>
       </c>
       <c r="S4">
-        <v>0.1787563698768707</v>
+        <v>0.02266100470637595</v>
       </c>
       <c r="T4">
-        <v>0.1787563698768707</v>
+        <v>0.02266100470637595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>0.060942</v>
       </c>
       <c r="I5">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="J5">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N5">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P5">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q5">
-        <v>0.003227677917333333</v>
+        <v>0.05876574763733335</v>
       </c>
       <c r="R5">
-        <v>0.029049101256</v>
+        <v>0.5288917287360001</v>
       </c>
       <c r="S5">
-        <v>0.05209962310450395</v>
+        <v>0.006604686620033781</v>
       </c>
       <c r="T5">
-        <v>0.05209962310450395</v>
+        <v>0.006604686620033779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.060942</v>
       </c>
       <c r="I6">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="J6">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,22 +803,22 @@
         <v>0.060942</v>
       </c>
       <c r="O6">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P6">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q6">
-        <v>0.0004126585959999999</v>
+        <v>0.0004126585960000001</v>
       </c>
       <c r="R6">
         <v>0.003713927364</v>
       </c>
       <c r="S6">
-        <v>0.006660936398572339</v>
+        <v>4.637872939970312E-05</v>
       </c>
       <c r="T6">
-        <v>0.006660936398572339</v>
+        <v>4.637872939970311E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.060942</v>
       </c>
       <c r="I7">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="J7">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,10 +865,10 @@
         <v>0.209095</v>
       </c>
       <c r="O7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P7">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q7">
         <v>0.001415851943333333</v>
@@ -877,10 +877,10 @@
         <v>0.01274266749</v>
       </c>
       <c r="S7">
-        <v>0.02285400046371113</v>
+        <v>0.0001591277021402469</v>
       </c>
       <c r="T7">
-        <v>0.02285400046371113</v>
+        <v>0.0001591277021402468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,40 +909,40 @@
         <v>0.209095</v>
       </c>
       <c r="I8">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="J8">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1588893333333333</v>
+        <v>2.892869333333334</v>
       </c>
       <c r="N8">
-        <v>0.476668</v>
+        <v>8.678608000000001</v>
       </c>
       <c r="O8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656885</v>
       </c>
       <c r="P8">
-        <v>0.6383618698147193</v>
+        <v>0.9698236995656884</v>
       </c>
       <c r="Q8">
-        <v>0.01107432171777778</v>
+        <v>0.2016281710844444</v>
       </c>
       <c r="R8">
-        <v>0.09966889546</v>
+        <v>1.81465353976</v>
       </c>
       <c r="S8">
-        <v>0.1787563698768707</v>
+        <v>0.02266100470637595</v>
       </c>
       <c r="T8">
-        <v>0.1787563698768707</v>
+        <v>0.02266100470637595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>0.209095</v>
       </c>
       <c r="I9">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="J9">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>0.060942</v>
       </c>
       <c r="O9">
-        <v>0.08161455996678742</v>
+        <v>0.006810193051573731</v>
       </c>
       <c r="P9">
-        <v>0.08161455996678742</v>
+        <v>0.00681019305157373</v>
       </c>
       <c r="Q9">
         <v>0.001415851943333333</v>
@@ -1001,10 +1001,10 @@
         <v>0.01274266749</v>
       </c>
       <c r="S9">
-        <v>0.02285400046371113</v>
+        <v>0.0001591277021402469</v>
       </c>
       <c r="T9">
-        <v>0.02285400046371113</v>
+        <v>0.0001591277021402468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>0.209095</v>
       </c>
       <c r="I10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="J10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,10 +1051,10 @@
         <v>0.209095</v>
       </c>
       <c r="O10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273784</v>
       </c>
       <c r="P10">
-        <v>0.2800235702184933</v>
+        <v>0.02336610738273783</v>
       </c>
       <c r="Q10">
         <v>0.004857857669444444</v>
@@ -1063,10 +1063,10 @@
         <v>0.043720719025</v>
       </c>
       <c r="S10">
-        <v>0.07841319987791144</v>
+        <v>0.0005459749742216355</v>
       </c>
       <c r="T10">
-        <v>0.07841319987791144</v>
+        <v>0.0005459749742216354</v>
       </c>
     </row>
   </sheetData>
